--- a/复盘/notification_monitoring_files/hindenburg_omen.xlsx
+++ b/复盘/notification_monitoring_files/hindenburg_omen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>notification_sent</t>
+  </si>
+  <si>
+    <t>2018-03-13</t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
   </si>
   <si>
     <t>2018-03-09</t>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +429,56 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>0.6726837085777877</v>
+      </c>
+      <c r="D2">
+        <v>0.7792433027812542</v>
+      </c>
+      <c r="E2">
+        <v>0.8903017592836409</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.6721469493963541</v>
+      </c>
+      <c r="D3">
+        <v>0.7735946282634137</v>
+      </c>
+      <c r="E3">
+        <v>0.8873367977610969</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>0.4229118306098268</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>0.6823929621063153</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>0.7988418602464118</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/复盘/notification_monitoring_files/hindenburg_omen.xlsx
+++ b/复盘/notification_monitoring_files/hindenburg_omen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -31,13 +31,10 @@
     <t>notification_sent</t>
   </si>
   <si>
-    <t>2018-03-13</t>
-  </si>
-  <si>
-    <t>2018-03-12</t>
-  </si>
-  <si>
-    <t>2018-03-09</t>
+    <t>2018-03-16</t>
+  </si>
+  <si>
+    <t>2018-03-15</t>
   </si>
   <si>
     <t>Y</t>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +426,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.6726837085777877</v>
+        <v>0.5094264856692802</v>
       </c>
       <c r="D2">
-        <v>0.7792433027812542</v>
+        <v>0.4788491921005814</v>
       </c>
       <c r="E2">
-        <v>0.8903017592836409</v>
+        <v>0.6570775583089501</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,36 +446,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.6721469493963541</v>
+        <v>0.4862442484091188</v>
       </c>
       <c r="D3">
-        <v>0.7735946282634137</v>
+        <v>0.4619932283919192</v>
       </c>
       <c r="E3">
-        <v>0.8873367977610969</v>
+        <v>0.5978473548984882</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.4229118306098268</v>
-      </c>
-      <c r="D4">
-        <v>0.6823929621063153</v>
-      </c>
-      <c r="E4">
-        <v>0.7988418602464118</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/复盘/notification_monitoring_files/hindenburg_omen.xlsx
+++ b/复盘/notification_monitoring_files/hindenburg_omen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -29,6 +29,36 @@
   </si>
   <si>
     <t>notification_sent</t>
+  </si>
+  <si>
+    <t>2018-05-08</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>2018-05-02</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>2018-03-22</t>
+  </si>
+  <si>
+    <t>2018-03-21</t>
+  </si>
+  <si>
+    <t>2018-03-20</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
   </si>
   <si>
     <t>2018-03-16</t>
@@ -395,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.5094264856692802</v>
+        <v>0.6910412695946914</v>
       </c>
       <c r="D2">
-        <v>0.4788491921005814</v>
+        <v>0.6615130147022792</v>
       </c>
       <c r="E2">
-        <v>0.6570775583089501</v>
+        <v>0.6812175883782291</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,16 +476,216 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>0.4990321303156645</v>
+      </c>
+      <c r="D3">
+        <v>0.4824120289985133</v>
+      </c>
+      <c r="E3">
+        <v>0.5233755845902032</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.2083083340506761</v>
+      </c>
+      <c r="D4">
+        <v>0.2052835283182502</v>
+      </c>
+      <c r="E4">
+        <v>0.1528411347936059</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.4245870500400741</v>
+      </c>
+      <c r="D5">
+        <v>0.4631555243935099</v>
+      </c>
+      <c r="E5">
+        <v>0.3318268654883984</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.459373184580592</v>
+      </c>
+      <c r="D6">
+        <v>0.4856046565429817</v>
+      </c>
+      <c r="E6">
+        <v>0.3753580884130054</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.6897610196508391</v>
+      </c>
+      <c r="D7">
+        <v>0.7198472011673879</v>
+      </c>
+      <c r="E7">
+        <v>0.762582669176173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0.008445144199579573</v>
+      </c>
+      <c r="D8">
+        <v>0.1745463354600005</v>
+      </c>
+      <c r="E8">
+        <v>0.3724702861574418</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.04849964445249828</v>
+      </c>
+      <c r="D9">
+        <v>0.1456137080423014</v>
+      </c>
+      <c r="E9">
+        <v>0.3839333625597994</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0.1240769640212653</v>
+      </c>
+      <c r="D10">
+        <v>0.1258930767857917</v>
+      </c>
+      <c r="E10">
+        <v>0.3388044588952401</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0.4128998839088854</v>
+      </c>
+      <c r="D11">
+        <v>0.3857020776683011</v>
+      </c>
+      <c r="E11">
+        <v>0.5513699538613661</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0.5094264856692802</v>
+      </c>
+      <c r="D12">
+        <v>0.4788491921005814</v>
+      </c>
+      <c r="E12">
+        <v>0.6570775583089501</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
         <v>0.4862442484091188</v>
       </c>
-      <c r="D3">
+      <c r="D13">
         <v>0.4619932283919192</v>
       </c>
-      <c r="E3">
+      <c r="E13">
         <v>0.5978473548984882</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
+      <c r="F13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/复盘/notification_monitoring_files/hindenburg_omen.xlsx
+++ b/复盘/notification_monitoring_files/hindenburg_omen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -31,6 +31,99 @@
     <t>notification_sent</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+  </si>
+  <si>
+    <t>2018-06-29</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>2018-06-26</t>
+  </si>
+  <si>
+    <t>2018-06-25</t>
+  </si>
+  <si>
+    <t>2018-06-22</t>
+  </si>
+  <si>
+    <t>2018-06-21</t>
+  </si>
+  <si>
+    <t>2018-06-20</t>
+  </si>
+  <si>
+    <t>2018-06-19</t>
+  </si>
+  <si>
+    <t>2018-06-15</t>
+  </si>
+  <si>
+    <t>2018-06-14</t>
+  </si>
+  <si>
+    <t>2018-06-13</t>
+  </si>
+  <si>
+    <t>2018-06-12</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-06</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t>2018-05-24</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-18</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2018-05-15</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>2018-05-10</t>
+  </si>
+  <si>
     <t>2018-05-08</t>
   </si>
   <si>
@@ -65,6 +158,9 @@
   </si>
   <si>
     <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Y</t>
@@ -425,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,23 +545,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.6910412695946914</v>
+        <v>0.4110441195133587</v>
       </c>
       <c r="D2">
-        <v>0.6615130147022792</v>
+        <v>0.5670552186475664</v>
       </c>
       <c r="E2">
-        <v>0.6812175883782291</v>
+        <v>0.6643949000224788</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.4990321303156645</v>
+        <v>0.5052738122700489</v>
       </c>
       <c r="D3">
-        <v>0.4824120289985133</v>
+        <v>0.5643309814492977</v>
       </c>
       <c r="E3">
-        <v>0.5233755845902032</v>
+        <v>0.6409405336382117</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.2083083340506761</v>
+        <v>0.3972635385992873</v>
       </c>
       <c r="D4">
-        <v>0.2052835283182502</v>
+        <v>0.4902052319270211</v>
       </c>
       <c r="E4">
-        <v>0.1528411347936059</v>
+        <v>0.6568641210158914</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -513,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.4245870500400741</v>
+        <v>0.2051722782204996</v>
       </c>
       <c r="D5">
-        <v>0.4631555243935099</v>
+        <v>0.2556719591554714</v>
       </c>
       <c r="E5">
-        <v>0.3318268654883984</v>
+        <v>0.5650609431383852</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -533,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.459373184580592</v>
+        <v>-0.06740758196511695</v>
       </c>
       <c r="D6">
-        <v>0.4856046565429817</v>
+        <v>0.09997461282150501</v>
       </c>
       <c r="E6">
-        <v>0.3753580884130054</v>
+        <v>0.6241658869691641</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -553,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.6897610196508391</v>
+        <v>0.1919379209926194</v>
       </c>
       <c r="D7">
-        <v>0.7198472011673879</v>
+        <v>0.3759218535298618</v>
       </c>
       <c r="E7">
-        <v>0.762582669176173</v>
+        <v>0.6368706295962088</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -573,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.008445144199579573</v>
+        <v>0.3050975154589357</v>
       </c>
       <c r="D8">
-        <v>0.1745463354600005</v>
+        <v>0.4184744628992942</v>
       </c>
       <c r="E8">
-        <v>0.3724702861574418</v>
+        <v>0.5170027863147942</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -593,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.04849964445249828</v>
+        <v>0.7857050892663456</v>
       </c>
       <c r="D9">
-        <v>0.1456137080423014</v>
+        <v>0.8005542929249297</v>
       </c>
       <c r="E9">
-        <v>0.3839333625597994</v>
+        <v>0.798245503368709</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -613,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0.1240769640212653</v>
+        <v>0.8494051531829874</v>
       </c>
       <c r="D10">
-        <v>0.1258930767857917</v>
+        <v>0.8620559616634091</v>
       </c>
       <c r="E10">
-        <v>0.3388044588952401</v>
+        <v>0.8552228309330513</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -633,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0.4128998839088854</v>
+        <v>0.8505354985267781</v>
       </c>
       <c r="D11">
-        <v>0.3857020776683011</v>
+        <v>0.8742621628357085</v>
       </c>
       <c r="E11">
-        <v>0.5513699538613661</v>
+        <v>0.8590467852674752</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -653,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>0.5094264856692802</v>
+        <v>0.8487195834742559</v>
       </c>
       <c r="D12">
-        <v>0.4788491921005814</v>
+        <v>0.881900412513004</v>
       </c>
       <c r="E12">
-        <v>0.6570775583089501</v>
+        <v>0.8785243073014298</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -673,19 +769,619 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
+        <v>0.596443768524486</v>
+      </c>
+      <c r="D13">
+        <v>0.6578849278617348</v>
+      </c>
+      <c r="E13">
+        <v>0.6768066555156458</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.4785073805126827</v>
+      </c>
+      <c r="D14">
+        <v>0.48488461400939</v>
+      </c>
+      <c r="E14">
+        <v>0.5298765151618074</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.5886949567602613</v>
+      </c>
+      <c r="D15">
+        <v>0.5025376661722067</v>
+      </c>
+      <c r="E15">
+        <v>0.523952226537711</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.5886949567602613</v>
+      </c>
+      <c r="D16">
+        <v>0.5025376661722067</v>
+      </c>
+      <c r="E16">
+        <v>0.523952226537711</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>0.6024887619836768</v>
+      </c>
+      <c r="D17">
+        <v>0.5789097685016353</v>
+      </c>
+      <c r="E17">
+        <v>0.5454660408061782</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.3794706586273491</v>
+      </c>
+      <c r="D18">
+        <v>0.4371805730972633</v>
+      </c>
+      <c r="E18">
+        <v>0.5478175829806277</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.5917765086472954</v>
+      </c>
+      <c r="D19">
+        <v>0.5218375835849889</v>
+      </c>
+      <c r="E19">
+        <v>0.4483129734890319</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.5603693942206314</v>
+      </c>
+      <c r="D20">
+        <v>0.4964266780076491</v>
+      </c>
+      <c r="E20">
+        <v>0.4339218999366368</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.4667888451706446</v>
+      </c>
+      <c r="D21">
+        <v>0.4308776506384498</v>
+      </c>
+      <c r="E21">
+        <v>0.4764499764093338</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.5554365234660293</v>
+      </c>
+      <c r="D22">
+        <v>0.4934515744025686</v>
+      </c>
+      <c r="E22">
+        <v>0.5790213863176741</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.567453442622618</v>
+      </c>
+      <c r="D23">
+        <v>0.4971065337048285</v>
+      </c>
+      <c r="E23">
+        <v>0.6032173716190302</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0.4964396025220181</v>
+      </c>
+      <c r="D24">
+        <v>0.4023342778400237</v>
+      </c>
+      <c r="E24">
+        <v>0.4794985695120396</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.3224054366771064</v>
+      </c>
+      <c r="D25">
+        <v>0.2492787046921901</v>
+      </c>
+      <c r="E25">
+        <v>0.3641811636183465</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.2045235079004695</v>
+      </c>
+      <c r="D26">
+        <v>0.1375770412350646</v>
+      </c>
+      <c r="E26">
+        <v>0.3106038390796271</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.1111638275290382</v>
+      </c>
+      <c r="D27">
+        <v>0.2229169174525827</v>
+      </c>
+      <c r="E27">
+        <v>0.522642309980569</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.01958812505108259</v>
+      </c>
+      <c r="D28">
+        <v>0.2219821513664511</v>
+      </c>
+      <c r="E28">
+        <v>0.5381479886784439</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>-0.05993465748554348</v>
+      </c>
+      <c r="D29">
+        <v>0.2939685325501071</v>
+      </c>
+      <c r="E29">
+        <v>0.5352412088541892</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0.2139466082017184</v>
+      </c>
+      <c r="D30">
+        <v>0.332222351710772</v>
+      </c>
+      <c r="E30">
+        <v>0.409728194587726</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>0.6041501551371599</v>
+      </c>
+      <c r="D31">
+        <v>0.5989665604639263</v>
+      </c>
+      <c r="E31">
+        <v>0.6058464028068298</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>0.6910412695946914</v>
+      </c>
+      <c r="D32">
+        <v>0.6615130147022792</v>
+      </c>
+      <c r="E32">
+        <v>0.6812175883782291</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>0.4990321303156645</v>
+      </c>
+      <c r="D33">
+        <v>0.4824120289985133</v>
+      </c>
+      <c r="E33">
+        <v>0.5233755845902032</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>0.2083083340506761</v>
+      </c>
+      <c r="D34">
+        <v>0.2052835283182502</v>
+      </c>
+      <c r="E34">
+        <v>0.1528411347936059</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>0.4245870500400741</v>
+      </c>
+      <c r="D35">
+        <v>0.4631555243935099</v>
+      </c>
+      <c r="E35">
+        <v>0.3318268654883984</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>0.459373184580592</v>
+      </c>
+      <c r="D36">
+        <v>0.4856046565429817</v>
+      </c>
+      <c r="E36">
+        <v>0.3753580884130054</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0.6897610196508391</v>
+      </c>
+      <c r="D37">
+        <v>0.7198472011673879</v>
+      </c>
+      <c r="E37">
+        <v>0.762582669176173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>0.008445144199579573</v>
+      </c>
+      <c r="D38">
+        <v>0.1745463354600005</v>
+      </c>
+      <c r="E38">
+        <v>0.3724702861574418</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0.04849964445249828</v>
+      </c>
+      <c r="D39">
+        <v>0.1456137080423014</v>
+      </c>
+      <c r="E39">
+        <v>0.3839333625597994</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>0.1240769640212653</v>
+      </c>
+      <c r="D40">
+        <v>0.1258930767857917</v>
+      </c>
+      <c r="E40">
+        <v>0.3388044588952401</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0.4128998839088854</v>
+      </c>
+      <c r="D41">
+        <v>0.3857020776683011</v>
+      </c>
+      <c r="E41">
+        <v>0.5513699538613661</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>0.5094264856692802</v>
+      </c>
+      <c r="D42">
+        <v>0.4788491921005814</v>
+      </c>
+      <c r="E42">
+        <v>0.6570775583089501</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
         <v>0.4862442484091188</v>
       </c>
-      <c r="D13">
+      <c r="D43">
         <v>0.4619932283919192</v>
       </c>
-      <c r="E13">
+      <c r="E43">
         <v>0.5978473548984882</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
+      <c r="F43" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
